--- a/Data Science/Advance Excel/Lab 3/macro_data.xlsx
+++ b/Data Science/Advance Excel/Lab 3/macro_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victo\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github repository\Lab-Record\Data Science\Advance Excel\Lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3845577-D1D7-417C-A40B-0BB60C178E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233B9ABE-27B2-4EB3-9CC9-ADAC9D76A206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{EB93EFCA-C41B-4700-BA75-B733FE04D7A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB93EFCA-C41B-4700-BA75-B733FE04D7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_1" sheetId="1" r:id="rId1"/>
@@ -1947,7 +1947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1967,16 +1967,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1996,9 +1987,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2036,7 +2027,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2142,7 +2133,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2284,7 +2275,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2294,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D05D1E-CE3B-4560-8400-F4A93713DA64}">
   <dimension ref="A1:F528"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2321,7 +2312,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2330,13 +2321,13 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>98</v>
       </c>
     </row>
@@ -12870,88 +12861,88 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="7">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>15</v>
       </c>
     </row>
@@ -12964,89 +12955,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACDDDE8-AA8B-41CC-9DAC-AC4BAD29E4CC}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="7">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>107</v>
       </c>
     </row>
